--- a/Gantt project planner.xlsx
+++ b/Gantt project planner.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28704"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60EC367A-C470-4CD2-9C5F-E06E6A58C1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FB9448C-D13E-40D1-A725-216C815851DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3340" yWindow="3200" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Actual">(PeriodInActual*(#REF!&gt;0))*PeriodInPlan</definedName>
@@ -45,109 +45,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
-  <si>
-    <t>Black Jack project time chart</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+  <si>
+    <t xml:space="preserve">Blackjack project Tasks </t>
+  </si>
+  <si>
+    <t>Predicted start date</t>
+  </si>
+  <si>
+    <t>Actual start date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End date </t>
+  </si>
+  <si>
+    <t>Total Meeting Minutes</t>
+  </si>
+  <si>
+    <t>Finished tasks check</t>
+  </si>
+  <si>
+    <t>Project Presentation project.init()</t>
+  </si>
+  <si>
+    <t>Project Presentation (Phase 1 Requirements)</t>
+  </si>
+  <si>
+    <t>Project Presentation (Phase 2 Design)</t>
+  </si>
+  <si>
+    <t>Project Presentation (Phase 3 Implementation)</t>
+  </si>
+  <si>
+    <t>Project Presentation (Phase 3 Testing)</t>
+  </si>
+  <si>
+    <t>Project Presentation (Phase 3 Maintenance)</t>
+  </si>
+  <si>
+    <t>Meeting Notes</t>
+  </si>
+  <si>
+    <t>Meeting Days</t>
   </si>
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>Percentage Completed</t>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>Group Memebers</t>
+  </si>
+  <si>
+    <t>Mainly worked on</t>
+  </si>
+  <si>
+    <t>init() Presentation (Discord)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:oo ~ 2:00 </t>
   </si>
   <si>
     <t>Mahlet Bekele</t>
   </si>
   <si>
+    <t>Use case</t>
+  </si>
+  <si>
+    <t>GitHub started (in person)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:30 ~ 3:10 </t>
+  </si>
+  <si>
     <t>Cristian Gonzales</t>
   </si>
   <si>
+    <t>Class UML</t>
+  </si>
+  <si>
+    <t>SRS Document (in person)</t>
+  </si>
+  <si>
+    <t>12:00 ~ 1:05</t>
+  </si>
+  <si>
     <t>Armand Tirado</t>
   </si>
   <si>
+    <t>Requirments</t>
+  </si>
+  <si>
+    <t>SRS Document (Discord)</t>
+  </si>
+  <si>
+    <t>6:30 ~ 8:40</t>
+  </si>
+  <si>
     <t>Brandon Wall</t>
   </si>
   <si>
+    <t>UML Diagrams (Discord)</t>
+  </si>
+  <si>
+    <t>12:45 ~ 2:00 PM</t>
+  </si>
+  <si>
     <t>Kenny Yu</t>
   </si>
   <si>
-    <t>Meeting Minutes</t>
-  </si>
-  <si>
-    <t>Minutes</t>
-  </si>
-  <si>
-    <t>Meeting Notes</t>
-  </si>
-  <si>
-    <t>Project Schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1:oo ~ 2:00 </t>
-  </si>
-  <si>
-    <t>init() Presentation (Discord)</t>
-  </si>
-  <si>
-    <t>Project Presentation project.init()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2:30 ~ 3:10 </t>
-  </si>
-  <si>
-    <t>GitHub started (in person)</t>
-  </si>
-  <si>
-    <t>Project Presentation (Phase 1 Requirements)</t>
-  </si>
-  <si>
-    <t>12:00 ~ 1:05</t>
-  </si>
-  <si>
-    <t>SRS Document (in person)</t>
-  </si>
-  <si>
-    <t>Project Presentation (Phase 2 Design)</t>
-  </si>
-  <si>
-    <t>6:30 ~ 8:40</t>
-  </si>
-  <si>
-    <t>SRS Document (Discord)</t>
-  </si>
-  <si>
-    <t>Project Presentation (Phase 3 Implementation)</t>
-  </si>
-  <si>
-    <t>12:45 ~ 2:00 PM</t>
-  </si>
-  <si>
-    <t>UML Diagrams (Discord)</t>
-  </si>
-  <si>
-    <t>Project Presentation (Phase 3 Testing)</t>
-  </si>
-  <si>
-    <t>Project Presentation (Phase 3 Maintenance)</t>
-  </si>
-  <si>
-    <t>Total Minutes</t>
+    <t>Sequence Diagram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -177,23 +192,6 @@
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="7"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -241,23 +239,8 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,18 +279,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,14 +346,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" applyFill="0" applyProtection="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" applyFill="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -391,76 +362,46 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFill="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="6" borderId="1">
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,6 +416,17 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -498,7 +450,26 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -518,10 +489,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="107"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="7"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -531,82 +502,31 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Black Jack project Time chart</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Blackjack</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Project Tasks Chart</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.40949300087489071"/>
-          <c:y val="2.3148148148148147E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -619,29 +539,12 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
+          <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -662,20 +565,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
+              <c:f>Sheet2!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Time</c:v>
+                  <c:v>Predicted start date</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:shade val="76000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -685,39 +586,60 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:f>Sheet2!$A$3:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Mahlet Bekele</c:v>
+                  <c:v>Project Presentation project.init()</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cristian Gonzales</c:v>
+                  <c:v>Project Presentation (Phase 1 Requirements)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Armand Tirado</c:v>
+                  <c:v>Project Presentation (Phase 2 Design)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Brandon Wall</c:v>
+                  <c:v>Project Presentation (Phase 3 Implementation)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Kenny Yu</c:v>
+                  <c:v>Project Presentation (Phase 3 Testing)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Project Presentation (Phase 3 Maintenance)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$8</c:f>
+              <c:f>Sheet2!$B$3:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45758</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45765</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45772</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-06D2-44A6-86D6-BEBB4D2CE77A}"/>
+              <c16:uniqueId val="{00000000-0EBC-4797-AB94-DAFE621A2CC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -726,20 +648,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$3</c:f>
+              <c:f>Sheet2!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Percentage Completed</c:v>
+                  <c:v>Actual start date</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:tint val="77000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -749,39 +669,131 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:f>Sheet2!$A$3:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Mahlet Bekele</c:v>
+                  <c:v>Project Presentation project.init()</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Cristian Gonzales</c:v>
+                  <c:v>Project Presentation (Phase 1 Requirements)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Armand Tirado</c:v>
+                  <c:v>Project Presentation (Phase 2 Design)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Brandon Wall</c:v>
+                  <c:v>Project Presentation (Phase 3 Implementation)</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Kenny Yu</c:v>
+                  <c:v>Project Presentation (Phase 3 Testing)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Project Presentation (Phase 3 Maintenance)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$8</c:f>
+              <c:f>Sheet2!$C$3:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45715</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-06D2-44A6-86D6-BEBB4D2CE77A}"/>
+              <c16:uniqueId val="{00000001-0EBC-4797-AB94-DAFE621A2CC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>End date </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$3:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Project Presentation project.init()</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Project Presentation (Phase 1 Requirements)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Project Presentation (Phase 2 Design)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Project Presentation (Phase 3 Implementation)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Project Presentation (Phase 3 Testing)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Project Presentation (Phase 3 Maintenance)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45694</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45722</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45771</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0EBC-4797-AB94-DAFE621A2CC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -795,11 +807,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1997892672"/>
-        <c:axId val="1997895552"/>
+        <c:axId val="2126857328"/>
+        <c:axId val="58860992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1997892672"/>
+        <c:axId val="2126857328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -829,12 +841,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -842,7 +851,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1997895552"/>
+        <c:crossAx val="58860992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -850,7 +859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1997895552"/>
+        <c:axId val="58860992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,7 +879,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -888,12 +897,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -901,7 +907,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1997892672"/>
+        <c:crossAx val="2126857328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -930,12 +936,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="+mj-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -957,9 +960,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -977,7 +978,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr b="0" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="+mj-lt"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -991,8 +997,42 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1505,23 +1545,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1625600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E0F260-2DC4-92F8-05EF-6536EF5AAEC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A92148C-CAC6-F672-6A3C-03ED635DE1C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1557,6 +1597,36 @@
     </a>
   </bag>
 </FeaturePropertyBags>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{050161F6-637A-4AAB-AA3F-A284F6562292}" name="Table2" displayName="Table2" ref="A2:F8" totalsRowShown="0">
+  <autoFilter ref="A2:F8" xr:uid="{050161F6-637A-4AAB-AA3F-A284F6562292}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{85D911E3-BD01-4198-92B4-128994F4DE11}" name="Blackjack project Tasks "/>
+    <tableColumn id="2" xr3:uid="{FE0B478E-88E4-45FE-8ABA-C3375F622702}" name="Predicted start date" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B427415E-3EC9-4C8F-ACBF-86094091CE5B}" name="Actual start date" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FDCADBF5-95DA-4848-95E6-767C06043100}" name="End date " dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{981BBD2B-E009-42F0-B361-A650E6FE59F4}" name="Total Meeting Minutes" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{9D388BB5-0EEA-47BF-8CC8-BDE12ED5429E}" name="Finished tasks check" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}" name="Table5" displayName="Table5" ref="A28:F33" totalsRowShown="0">
+  <autoFilter ref="A28:F33" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{6180F13D-FA85-403B-A6F5-A129737F43E0}" name="Meeting Notes"/>
+    <tableColumn id="2" xr3:uid="{1B074AB1-8492-456A-8DB2-4E8637EEEFD3}" name="Meeting Days" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B34DD85A-D9DA-4E6F-97D4-BA866E25BCB4}" name="Time"/>
+    <tableColumn id="4" xr3:uid="{4295CB5A-07EF-4E29-9662-3171C4A659A4}" name="Minutes"/>
+    <tableColumn id="5" xr3:uid="{C0A2C9FC-84D9-414E-954D-776F351D168A}" name="Group Memebers"/>
+    <tableColumn id="6" xr3:uid="{89FCF1D1-D24E-4257-8671-3041AEEEDB70}" name="Mainly worked on"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1785,276 +1855,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E97EF25-1E81-4ED7-BBDC-0080820D5871}">
-  <dimension ref="A1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22311CCC-0325-4A31-9EFD-58D1C23F0A25}">
+  <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="15.625" customWidth="1"/>
-    <col min="8" max="8" width="37.625" customWidth="1"/>
-    <col min="9" max="9" width="26.375" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="21.25" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="D1" s="6" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.100000000000001">
-      <c r="A2" s="4"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="14.45" customHeight="1">
-      <c r="B3" s="5" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.100000000000001">
-      <c r="B4" s="8" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="17.100000000000001">
-      <c r="B5" s="8" t="s">
+      <c r="B3" s="1">
+        <v>45684</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45684</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45694</v>
+      </c>
+      <c r="E3" s="4">
+        <v>60</v>
+      </c>
+      <c r="F3" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="17.100000000000001">
-      <c r="B6" s="8" t="s">
+      <c r="B4" s="1">
+        <v>45715</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45715</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45722</v>
+      </c>
+      <c r="E4" s="4">
+        <v>210</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="17.100000000000001">
-      <c r="B7" s="8" t="s">
+      <c r="B5" s="1">
+        <v>45725</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>45757</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.100000000000001">
-      <c r="B8" s="8" t="s">
+      <c r="B6" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>45764</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="17.100000000000001">
-      <c r="B9" s="1"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" t="s">
+      <c r="B7" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1">
+        <v>45771</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B8" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>45778</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
+      <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="G19" t="s">
+      <c r="C28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="11">
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1">
         <v>45693</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20">
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="11">
-        <v>45694</v>
-      </c>
-      <c r="H20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="11">
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1">
         <v>45715</v>
       </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21">
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30">
         <v>40</v>
       </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="11">
-        <v>45722</v>
-      </c>
-      <c r="H21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="11">
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="1">
         <v>45720</v>
       </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22">
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
         <v>65</v>
       </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="11">
-        <v>45757</v>
-      </c>
-      <c r="H22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="11">
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
         <v>45720</v>
       </c>
-      <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23">
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32">
         <v>130</v>
       </c>
-      <c r="E23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="11">
-        <v>45764</v>
-      </c>
-      <c r="H23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="11">
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
         <v>45721</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24">
+      <c r="C33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33">
         <v>75</v>
       </c>
-      <c r="E24" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="11">
-        <v>45771</v>
-      </c>
-      <c r="H24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="G25" s="11">
-        <v>45778</v>
-      </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="D31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="D32">
-        <f>SUM(D20:D30)</f>
-        <v>370</v>
-      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="1"/>
+      <c r="C40" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G2" xr:uid="{85E96527-1D90-4291-B652-CADFE9BBFD34}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F2" xr:uid="{E538C707-B2D2-47CD-9EE5-B13D154D4C36}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E2 D3" xr:uid="{30D170BA-E8CF-4DE8-8184-EDB5977A9416}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D2 C3" xr:uid="{C6488257-E4E6-4AED-8A4F-4C577F4162A5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C2 B3" xr:uid="{04E01D96-85C6-4768-B656-5B20FA0CAF08}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B2" xr:uid="{6B78EB72-BCC6-4B9F-958F-5B048384A9B5}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="2">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Gantt project planner.xlsx
+++ b/Gantt project planner.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FB9448C-D13E-40D1-A725-216C815851DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{0FB9448C-D13E-40D1-A725-216C815851DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07847881-4FBD-47CA-BF5B-E8988B334C91}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3340" yWindow="3200" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t xml:space="preserve">Blackjack project Tasks </t>
   </si>
@@ -95,12 +95,6 @@
     <t>Minutes</t>
   </si>
   <si>
-    <t>Group Memebers</t>
-  </si>
-  <si>
-    <t>Mainly worked on</t>
-  </si>
-  <si>
     <t>init() Presentation (Discord)</t>
   </si>
   <si>
@@ -156,13 +150,70 @@
   </si>
   <si>
     <t>Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Design Phase (Inperson)</t>
+  </si>
+  <si>
+    <t>Design Phase (Discord)</t>
+  </si>
+  <si>
+    <t>4:40 ~7:30</t>
+  </si>
+  <si>
+    <t>11:30 ~1:00</t>
+  </si>
+  <si>
+    <t>2:15 ~3:00</t>
+  </si>
+  <si>
+    <t>9:30 ~11:00</t>
+  </si>
+  <si>
+    <t>12:30 ~ 1:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group Name </t>
+  </si>
+  <si>
+    <t>Requirement Phase contribution</t>
+  </si>
+  <si>
+    <t>Design Phase contribution</t>
+  </si>
+  <si>
+    <t>Implementation Phase contribution</t>
+  </si>
+  <si>
+    <t>Testing Phase contribution</t>
+  </si>
+  <si>
+    <t>Usecase specification and client server diagram</t>
+  </si>
+  <si>
+    <t>UI, class diagram and System Architecture</t>
+  </si>
+  <si>
+    <t>Usecase diagram and UI</t>
+  </si>
+  <si>
+    <t>2:30 ~ 3:00</t>
+  </si>
+  <si>
+    <t>Usecase diagram and sequence diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintaince Phase </t>
+  </si>
+  <si>
+    <t>Graphic UI and class diagram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -235,6 +286,12 @@
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -705,6 +762,9 @@
                 <c:pt idx="1">
                   <c:v>45715</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>45740</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1615,17 +1675,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}" name="Table5" displayName="Table5" ref="A28:F33" totalsRowShown="0">
-  <autoFilter ref="A28:F33" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}" name="Table5" displayName="Table5" ref="A28:D39" totalsRowShown="0">
+  <autoFilter ref="A28:D39" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6180F13D-FA85-403B-A6F5-A129737F43E0}" name="Meeting Notes"/>
     <tableColumn id="2" xr3:uid="{1B074AB1-8492-456A-8DB2-4E8637EEEFD3}" name="Meeting Days" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{B34DD85A-D9DA-4E6F-97D4-BA866E25BCB4}" name="Time"/>
     <tableColumn id="4" xr3:uid="{4295CB5A-07EF-4E29-9662-3171C4A659A4}" name="Minutes"/>
-    <tableColumn id="5" xr3:uid="{C0A2C9FC-84D9-414E-954D-776F351D168A}" name="Group Memebers"/>
-    <tableColumn id="6" xr3:uid="{89FCF1D1-D24E-4257-8671-3041AEEEDB70}" name="Mainly worked on"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1642DF8-8F24-4D4A-8FFB-E495F9101425}" name="Table1" displayName="Table1" ref="A42:F47" totalsRowShown="0">
+  <autoFilter ref="A42:F47" xr:uid="{F1642DF8-8F24-4D4A-8FFB-E495F9101425}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{99F5A788-B1A4-4B08-B21E-E248EF419158}" name="Group Name "/>
+    <tableColumn id="2" xr3:uid="{B35AD351-C442-4DA3-A154-98EFC0CFF3E1}" name="Requirement Phase contribution"/>
+    <tableColumn id="3" xr3:uid="{7FDEA9F1-763B-4767-8A5A-BE8FA5039EFE}" name="Design Phase contribution"/>
+    <tableColumn id="4" xr3:uid="{FA38B010-A0AF-43D6-9D5C-F7003B120402}" name="Implementation Phase contribution"/>
+    <tableColumn id="5" xr3:uid="{9DCB8456-ABE1-4E9B-B7C7-4918B1055960}" name="Testing Phase contribution"/>
+    <tableColumn id="6" xr3:uid="{44F01119-4DB5-489D-B591-235775C3E869}" name="Maintaince Phase "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1856,24 +1929,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22311CCC-0325-4A31-9EFD-58D1C23F0A25}">
-  <dimension ref="A2:F40"/>
+  <dimension ref="A2:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="36.08203125" customWidth="1"/>
+    <col min="2" max="2" width="33.4140625" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="5" max="5" width="35.75" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +1966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1913,7 +1986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1933,23 +2006,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>45725</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>45740</v>
+      </c>
       <c r="D5" s="1">
         <v>45757</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>455</v>
+      </c>
       <c r="F5" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1965,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1981,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1995,46 +2072,46 @@
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2047,136 +2124,249 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>18</v>
       </c>
       <c r="B29" s="1">
         <v>45693</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>60</v>
       </c>
-      <c r="E29" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>45715</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <v>40</v>
       </c>
-      <c r="E30" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>24</v>
-      </c>
-      <c r="F30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>26</v>
       </c>
       <c r="B31" s="1">
         <v>45720</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31">
         <v>65</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>28</v>
-      </c>
-      <c r="F31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>45720</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <v>130</v>
       </c>
-      <c r="E32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>45721</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33">
         <v>75</v>
       </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="F33" t="s">
+      <c r="B34" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="B35" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Gantt project planner.xlsx
+++ b/Gantt project planner.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FB9448C-D13E-40D1-A725-216C815851DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="8_{0FB9448C-D13E-40D1-A725-216C815851DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1987CED1-AA3A-4298-8D94-9EBEFD9DE868}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3340" yWindow="3200" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t xml:space="preserve">Blackjack project Tasks </t>
   </si>
@@ -95,12 +95,6 @@
     <t>Minutes</t>
   </si>
   <si>
-    <t>Group Memebers</t>
-  </si>
-  <si>
-    <t>Mainly worked on</t>
-  </si>
-  <si>
     <t>init() Presentation (Discord)</t>
   </si>
   <si>
@@ -156,13 +150,70 @@
   </si>
   <si>
     <t>Sequence Diagram</t>
+  </si>
+  <si>
+    <t>Group Name</t>
+  </si>
+  <si>
+    <t>Design Phase (inperson)</t>
+  </si>
+  <si>
+    <t>Design Phase (discord)</t>
+  </si>
+  <si>
+    <t>2:30 ~3:00</t>
+  </si>
+  <si>
+    <t>11:30 ~1:00</t>
+  </si>
+  <si>
+    <t>12:30 ~ 1:00</t>
+  </si>
+  <si>
+    <t>Requirments phase contribution</t>
+  </si>
+  <si>
+    <t>Design phase contribution</t>
+  </si>
+  <si>
+    <t>Testing phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintainance phase </t>
+  </si>
+  <si>
+    <t>Use case diagram and UI</t>
+  </si>
+  <si>
+    <t>client server sequence diagram and use case specification</t>
+  </si>
+  <si>
+    <t>General UI and class diagram</t>
+  </si>
+  <si>
+    <t>UI, System Architecture and class diagram</t>
+  </si>
+  <si>
+    <t>Class diagram and sequence diagram</t>
+  </si>
+  <si>
+    <t>9:30 ~ 11:00</t>
+  </si>
+  <si>
+    <t>2:15 ~ 3:00</t>
+  </si>
+  <si>
+    <t>4:30  ~ 7:30</t>
+  </si>
+  <si>
+    <t>Implementation phase contribution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -705,6 +756,9 @@
                 <c:pt idx="1">
                   <c:v>45715</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>45740</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1599,6 +1653,10 @@
 </FeaturePropertyBags>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{050161F6-637A-4AAB-AA3F-A284F6562292}" name="Table2" displayName="Table2" ref="A2:F8" totalsRowShown="0">
   <autoFilter ref="A2:F8" xr:uid="{050161F6-637A-4AAB-AA3F-A284F6562292}"/>
@@ -1615,17 +1673,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}" name="Table5" displayName="Table5" ref="A28:F33" totalsRowShown="0">
-  <autoFilter ref="A28:F33" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}" name="Table5" displayName="Table5" ref="A28:D39" totalsRowShown="0">
+  <autoFilter ref="A28:D39" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6180F13D-FA85-403B-A6F5-A129737F43E0}" name="Meeting Notes"/>
     <tableColumn id="2" xr3:uid="{1B074AB1-8492-456A-8DB2-4E8637EEEFD3}" name="Meeting Days" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{B34DD85A-D9DA-4E6F-97D4-BA866E25BCB4}" name="Time"/>
     <tableColumn id="4" xr3:uid="{4295CB5A-07EF-4E29-9662-3171C4A659A4}" name="Minutes"/>
-    <tableColumn id="5" xr3:uid="{C0A2C9FC-84D9-414E-954D-776F351D168A}" name="Group Memebers"/>
-    <tableColumn id="6" xr3:uid="{89FCF1D1-D24E-4257-8671-3041AEEEDB70}" name="Mainly worked on"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9B292A42-CBA9-4E68-BA01-366E97889D4F}" name="Table6" displayName="Table6" ref="A45:F51" totalsRowShown="0">
+  <autoFilter ref="A45:F51" xr:uid="{9B292A42-CBA9-4E68-BA01-366E97889D4F}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B9D39758-4636-461B-996E-28C21226C60E}" name="Group Name"/>
+    <tableColumn id="2" xr3:uid="{22ED340A-4CD1-42AB-8785-15950127195D}" name="Requirments phase contribution"/>
+    <tableColumn id="3" xr3:uid="{D2D608F1-1F53-41AE-B104-620FD0374C4C}" name="Design phase contribution"/>
+    <tableColumn id="4" xr3:uid="{3798933C-489E-4EAB-B19A-5CC9934C760F}" name="Implementation phase contribution"/>
+    <tableColumn id="5" xr3:uid="{CFEBE9B2-73D0-46C7-BDFF-DA151291E3BE}" name="Testing phase"/>
+    <tableColumn id="6" xr3:uid="{F52B9CAF-8C9F-4F3E-8B2E-C5DDC8963C50}" name="Maintainance phase "/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1856,24 +1927,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22311CCC-0325-4A31-9EFD-58D1C23F0A25}">
-  <dimension ref="A2:F40"/>
+  <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="36.08203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" customWidth="1"/>
+    <col min="8" max="10" width="9.5" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1893,7 +1969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1913,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1933,23 +2009,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>45725</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1">
+        <v>45740</v>
+      </c>
       <c r="D5" s="1">
         <v>45757</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>455</v>
+      </c>
       <c r="F5" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1965,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1981,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1995,46 +2075,46 @@
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2047,136 +2127,248 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>16</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>18</v>
       </c>
       <c r="B29" s="1">
         <v>45693</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>60</v>
       </c>
-      <c r="E29" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>22</v>
       </c>
       <c r="B30" s="1">
         <v>45715</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <v>40</v>
       </c>
-      <c r="E30" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
         <v>24</v>
-      </c>
-      <c r="F30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>26</v>
       </c>
       <c r="B31" s="1">
         <v>45720</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D31">
         <v>65</v>
       </c>
-      <c r="E31" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>28</v>
-      </c>
-      <c r="F31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>45720</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <v>130</v>
       </c>
-      <c r="E32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>45721</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33">
         <v>75</v>
       </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="B34" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Gantt project planner.xlsx
+++ b/Gantt project planner.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="193" documentId="8_{0FB9448C-D13E-40D1-A725-216C815851DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1987CED1-AA3A-4298-8D94-9EBEFD9DE868}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3B7258-AFB7-4F47-955C-6D8D2B76236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t xml:space="preserve">Blackjack project Tasks </t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Implementation phase contribution</t>
+  </si>
+  <si>
+    <t>Client, Server, Message, GUI, Panels</t>
   </si>
 </sst>
 </file>
@@ -1653,10 +1656,6 @@
 </FeaturePropertyBags>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{050161F6-637A-4AAB-AA3F-A284F6562292}" name="Table2" displayName="Table2" ref="A2:F8" totalsRowShown="0">
   <autoFilter ref="A2:F8" xr:uid="{050161F6-637A-4AAB-AA3F-A284F6562292}"/>
@@ -1929,27 +1928,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22311CCC-0325-4A31-9EFD-58D1C23F0A25}">
   <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.08203125" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.58203125" customWidth="1"/>
+    <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
     <col min="8" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
     <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
     <col min="14" max="14" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2009,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2029,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2075,46 +2074,46 @@
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2128,7 +2127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2142,7 +2141,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2156,7 +2155,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2170,7 +2169,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2198,7 +2197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2212,7 +2211,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2226,7 +2225,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2240,7 +2239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2282,11 +2281,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -2306,7 +2305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -2349,8 +2348,11 @@
       <c r="C49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>

--- a/Gantt project planner.xlsx
+++ b/Gantt project planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3B7258-AFB7-4F47-955C-6D8D2B76236E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB48147E-C6AD-45E9-9367-34F882594072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -26,17 +26,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -45,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t xml:space="preserve">Blackjack project Tasks </t>
   </si>
@@ -1928,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22311CCC-0325-4A31-9EFD-58D1C23F0A25}">
   <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,6 +2351,9 @@
       <c r="C50" t="s">
         <v>49</v>
       </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gantt project planner.xlsx
+++ b/Gantt project planner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB48147E-C6AD-45E9-9367-34F882594072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5C1224-F8E1-42F4-B2A0-4AFDF706AC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t xml:space="preserve">Blackjack project Tasks </t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Client, Server, Message, GUI, Panels</t>
+  </si>
+  <si>
+    <t>Implementation Phase</t>
   </si>
 </sst>
 </file>
@@ -1661,8 +1664,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}" name="Table5" displayName="Table5" ref="A28:D39" totalsRowShown="0">
-  <autoFilter ref="A28:D39" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}" name="Table5" displayName="Table5" ref="A28:D45" totalsRowShown="0">
+  <autoFilter ref="A28:D45" xr:uid="{D16DEAE1-45EC-4EF2-B47F-7E2C4FFD21E9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6180F13D-FA85-403B-A6F5-A129737F43E0}" name="Meeting Notes"/>
     <tableColumn id="2" xr3:uid="{1B074AB1-8492-456A-8DB2-4E8637EEEFD3}" name="Meeting Days" dataDxfId="0"/>
@@ -1674,8 +1677,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9B292A42-CBA9-4E68-BA01-366E97889D4F}" name="Table6" displayName="Table6" ref="A45:F51" totalsRowShown="0">
-  <autoFilter ref="A45:F51" xr:uid="{9B292A42-CBA9-4E68-BA01-366E97889D4F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{9B292A42-CBA9-4E68-BA01-366E97889D4F}" name="Table6" displayName="Table6" ref="A52:F58" totalsRowShown="0">
+  <autoFilter ref="A52:F58" xr:uid="{9B292A42-CBA9-4E68-BA01-366E97889D4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B9D39758-4636-461B-996E-28C21226C60E}" name="Group Name"/>
     <tableColumn id="2" xr3:uid="{22ED340A-4CD1-42AB-8785-15950127195D}" name="Requirments phase contribution"/>
@@ -1915,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22311CCC-0325-4A31-9EFD-58D1C23F0A25}">
-  <dimension ref="A2:F50"/>
+  <dimension ref="A2:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,7 +2175,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2186,7 +2189,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2270,88 +2273,135 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>35</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B52" t="s">
         <v>41</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C52" t="s">
         <v>42</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D52" t="s">
         <v>53</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E52" t="s">
         <v>43</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>18</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B53" t="s">
         <v>19</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>22</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B54" t="s">
         <v>23</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>26</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B55" t="s">
         <v>27</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>30</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B56" t="s">
         <v>27</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C56" t="s">
         <v>48</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>33</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B57" t="s">
         <v>34</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C57" t="s">
         <v>49</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D57" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Gantt project planner.xlsx
+++ b/Gantt project planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{736F8D8E-73DE-4DA7-915A-7528EF397ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5179FBA0-0785-41CB-ACA5-5FDBCFE2C446}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100CF829-359D-4220-8CDC-1EA57187649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t xml:space="preserve">Blackjack project Tasks </t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>server (in the start) , player , Penals, testing</t>
+  </si>
+  <si>
+    <t>Added TestRunner and AllTest</t>
   </si>
 </sst>
 </file>
@@ -1944,27 +1947,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22311CCC-0325-4A31-9EFD-58D1C23F0A25}">
   <dimension ref="A2:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.08203125" customWidth="1"/>
-    <col min="2" max="2" width="29.58203125" customWidth="1"/>
-    <col min="3" max="3" width="45.58203125" customWidth="1"/>
-    <col min="4" max="4" width="33.58203125" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
-    <col min="7" max="7" width="8.58203125" customWidth="1"/>
+    <col min="1" max="1" width="36.125" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
+    <col min="6" max="6" width="21.375" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
     <col min="8" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="9.58203125" customWidth="1"/>
+    <col min="11" max="11" width="9.625" customWidth="1"/>
     <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="9.58203125" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
     <col min="14" max="14" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2064,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2088,46 +2091,46 @@
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2141,7 +2144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2197,7 +2200,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2211,7 +2214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2225,7 +2228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2239,7 +2242,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2323,7 +2326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2407,7 +2410,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2421,13 +2424,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2461,7 +2464,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -2472,7 +2475,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -2497,7 +2500,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -2509,6 +2512,9 @@
       </c>
       <c r="D57" t="s">
         <v>54</v>
+      </c>
+      <c r="E57" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Gantt project planner.xlsx
+++ b/Gantt project planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{736F8D8E-73DE-4DA7-915A-7528EF397ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5179FBA0-0785-41CB-ACA5-5FDBCFE2C446}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{736F8D8E-73DE-4DA7-915A-7528EF397ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{905B7ACB-4069-4CF2-A43B-5F9DF6DF4BAC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t>10:00 ~ 1:00</t>
   </si>
   <si>
-    <t>server (in the start) , player , Penals, testing</t>
+    <t>server (in the start) , player , Panels, testing</t>
   </si>
 </sst>
 </file>
@@ -1944,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22311CCC-0325-4A31-9EFD-58D1C23F0A25}">
   <dimension ref="A2:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Gantt project planner.xlsx
+++ b/Gantt project planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100CF829-359D-4220-8CDC-1EA57187649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{100CF829-359D-4220-8CDC-1EA57187649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DCFD164-1BED-4977-A4A6-CA185A879441}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -231,10 +231,10 @@
     <t>10:00 ~ 1:00</t>
   </si>
   <si>
-    <t>server (in the start) , player , Penals, testing</t>
-  </si>
-  <si>
     <t>Added TestRunner and AllTest</t>
+  </si>
+  <si>
+    <t>server (in the start) , player , Panels, testing</t>
   </si>
 </sst>
 </file>
@@ -1947,27 +1947,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22311CCC-0325-4A31-9EFD-58D1C23F0A25}">
   <dimension ref="A2:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="1" max="1" width="36.08203125" customWidth="1"/>
+    <col min="2" max="2" width="29.58203125" customWidth="1"/>
+    <col min="3" max="3" width="45.58203125" customWidth="1"/>
+    <col min="4" max="4" width="33.58203125" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" customWidth="1"/>
     <col min="8" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="9.58203125" customWidth="1"/>
     <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="9.58203125" customWidth="1"/>
     <col min="14" max="14" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2091,46 +2091,46 @@
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2424,13 +2424,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2461,10 +2461,10 @@
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Gantt project planner.xlsx
+++ b/Gantt project planner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100CF829-359D-4220-8CDC-1EA57187649C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276AF8D4-34F5-47F0-86A7-085EA56A2AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t xml:space="preserve">Blackjack project Tasks </t>
   </si>
@@ -231,10 +231,22 @@
     <t>10:00 ~ 1:00</t>
   </si>
   <si>
-    <t>server (in the start) , player , Penals, testing</t>
-  </si>
-  <si>
     <t>Added TestRunner and AllTest</t>
+  </si>
+  <si>
+    <t>Game, Table, Lobby, Player, Dealer</t>
+  </si>
+  <si>
+    <t>Hand, Message, Shoe Test</t>
+  </si>
+  <si>
+    <t>Table, Lobby, Player, Dealer, Message</t>
+  </si>
+  <si>
+    <t>Login, Hand, Server, Client, Deck, Card</t>
+  </si>
+  <si>
+    <t>Server (in the start) , player , Penals, testing</t>
   </si>
 </sst>
 </file>
@@ -1947,16 +1959,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22311CCC-0325-4A31-9EFD-58D1C23F0A25}">
   <dimension ref="A2:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.125" customWidth="1"/>
     <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="45.625" customWidth="1"/>
-    <col min="4" max="4" width="33.625" customWidth="1"/>
+    <col min="3" max="3" width="53.75" customWidth="1"/>
+    <col min="4" max="4" width="46.625" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="6" width="21.375" customWidth="1"/>
     <col min="7" max="7" width="8.625" customWidth="1"/>
@@ -2461,7 +2473,7 @@
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2474,6 +2486,12 @@
       <c r="C54" t="s">
         <v>46</v>
       </c>
+      <c r="D54" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -2485,6 +2503,12 @@
       <c r="C55" t="s">
         <v>47</v>
       </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -2514,7 +2538,7 @@
         <v>54</v>
       </c>
       <c r="E57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Gantt project planner.xlsx
+++ b/Gantt project planner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276AF8D4-34F5-47F0-86A7-085EA56A2AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C827050-EA8F-4A54-830E-EB0EAC80942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t xml:space="preserve">Blackjack project Tasks </t>
   </si>
@@ -240,13 +240,16 @@
     <t>Hand, Message, Shoe Test</t>
   </si>
   <si>
-    <t>Table, Lobby, Player, Dealer, Message</t>
-  </si>
-  <si>
-    <t>Login, Hand, Server, Client, Deck, Card</t>
-  </si>
-  <si>
     <t>Server (in the start) , player , Penals, testing</t>
+  </si>
+  <si>
+    <t>Client, Card, Server, Message, GUI, Panels</t>
+  </si>
+  <si>
+    <t>Login, Hand, Server, Client, Deck</t>
+  </si>
+  <si>
+    <t>Table, Lobby, Player, Dealer</t>
   </si>
 </sst>
 </file>
@@ -1960,7 +1963,7 @@
   <dimension ref="A2:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,7 +2476,7 @@
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2490,7 +2493,7 @@
         <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2504,7 +2507,7 @@
         <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E55" t="s">
         <v>67</v>
@@ -2521,7 +2524,7 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">

--- a/Gantt project planner.xlsx
+++ b/Gantt project planner.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C827050-EA8F-4A54-830E-EB0EAC80942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1C827050-EA8F-4A54-830E-EB0EAC80942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1A3D4E4-201E-4FD9-A723-B5D42524995B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t xml:space="preserve">Blackjack project Tasks </t>
   </si>
@@ -240,9 +240,6 @@
     <t>Hand, Message, Shoe Test</t>
   </si>
   <si>
-    <t>Server (in the start) , player , Penals, testing</t>
-  </si>
-  <si>
     <t>Client, Card, Server, Message, GUI, Panels</t>
   </si>
   <si>
@@ -250,6 +247,12 @@
   </si>
   <si>
     <t>Table, Lobby, Player, Dealer</t>
+  </si>
+  <si>
+    <t>Lobby, Message</t>
+  </si>
+  <si>
+    <t>Server (in the start) , player , Penals</t>
   </si>
 </sst>
 </file>
@@ -1962,27 +1965,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22311CCC-0325-4A31-9EFD-58D1C23F0A25}">
   <dimension ref="A2:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" zoomScale="39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.125" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="36.08203125" customWidth="1"/>
+    <col min="2" max="2" width="29.58203125" customWidth="1"/>
     <col min="3" max="3" width="53.75" customWidth="1"/>
-    <col min="4" max="4" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="46.58203125" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="6" width="21.375" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" customWidth="1"/>
     <col min="8" max="10" width="9.5" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
+    <col min="11" max="11" width="9.58203125" customWidth="1"/>
     <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="9.58203125" customWidth="1"/>
     <col min="14" max="14" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2106,46 +2109,46 @@
       <c r="E8" s="4"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2159,7 +2162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2173,7 +2176,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -2201,7 +2204,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2229,7 +2232,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2271,7 +2274,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2299,7 +2302,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2341,7 +2344,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -2355,7 +2358,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -2411,7 +2414,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -2439,13 +2442,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B50" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -2476,10 +2479,13 @@
         <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="E53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -2493,10 +2499,10 @@
         <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -2507,13 +2513,13 @@
         <v>47</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>30</v>
       </c>
@@ -2524,10 +2530,10 @@
         <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>33</v>
       </c>

--- a/Gantt project planner.xlsx
+++ b/Gantt project planner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{1C827050-EA8F-4A54-830E-EB0EAC80942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1A3D4E4-201E-4FD9-A723-B5D42524995B}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{1C827050-EA8F-4A54-830E-EB0EAC80942C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C317E098-321A-40F5-80E0-0CEA2164FF6D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t xml:space="preserve">Blackjack project Tasks </t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Server (in the start) , player , Penals</t>
+  </si>
+  <si>
+    <t>5/62025</t>
   </si>
 </sst>
 </file>
@@ -726,7 +729,10 @@
                   <c:v>45758</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45783</c:v>
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,6 +811,9 @@
                 <c:pt idx="3">
                   <c:v>45763</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>45778</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -880,6 +889,9 @@
                   <c:v>45757</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>45783</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>45783</c:v>
                 </c:pt>
               </c:numCache>
@@ -1691,6 +1703,10 @@
     </a>
   </bag>
 </FeaturePropertyBags>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1966,7 +1982,7 @@
   <dimension ref="A2:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2082,7 +2098,7 @@
         <v>1310</v>
       </c>
       <c r="F6" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2090,20 +2106,26 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45778</v>
+      </c>
+      <c r="D7" s="1">
         <v>45783</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="4"/>
